--- a/Courses/Computer-Modeling-and-IT/Computer-Modeling-and-IT-6-Class/10-Formulas-and-Functions/Resources/shop_kartof.xlsx
+++ b/Courses/Computer-Modeling-and-IT/Computer-Modeling-and-IT-6-Class/10-Formulas-and-Functions/Resources/shop_kartof.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs project\GitHub\School-Programming\Courses\Computer-Modeling-and-IT\Computer-Modeling-and-IT-6-Class\10-Formulas-For-Performing-Arithmetic-Operations-With-Data-And-Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\School-Programming\Courses\Computer-Modeling-and-IT\Computer-Modeling-and-IT-6-Class\10-Formulas-and-Functions\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C049313-B754-419C-BAF0-FD0361C32786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21690" windowHeight="8685"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,11 +72,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;лв.&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;лв.&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +93,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -101,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,27 +118,174 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;лв.&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -140,6 +296,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2696C98-B8B7-4AD6-A491-52A73EC7D98E}" name="Table1" displayName="Table1" ref="A2:E6" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A2:E6" xr:uid="{B2696C98-B8B7-4AD6-A491-52A73EC7D98E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CA5F550A-1CEB-40D0-8655-A3AB87AC6A62}" name="Име на продукта" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{905D4498-9296-4203-8A48-7CD1C22CDFE8}" name="Количество (бр.)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{67193F38-A9D3-46AF-984C-C5927AB4D964}" name="Срок на годност" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F494C66E-7A04-4F75-A8F3-12DF4A2B8FA3}" name="Цена" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{83A7D6EF-98BC-4DD0-9F18-D68A00DD88EE}" name="Цена за цялото количество на продукта" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,11 +574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,13 +590,14 @@
     <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -449,7 +620,7 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>3</v>
       </c>
       <c r="C3" s="4">
@@ -458,12 +629,13 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>30</v>
       </c>
       <c r="C4" s="4">
@@ -472,12 +644,13 @@
       <c r="D4" s="5">
         <v>1.5</v>
       </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="4">
@@ -486,12 +659,13 @@
       <c r="D5" s="5">
         <v>3</v>
       </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>13</v>
       </c>
       <c r="C6" s="4">
@@ -500,6 +674,7 @@
       <c r="D6" s="5">
         <v>2</v>
       </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -523,9 +698,12 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>